--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>730451.6462028353</v>
+        <v>727580.008971572</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587976</v>
+        <v>8444421.381715722</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11950137.05835346</v>
+        <v>11950119.78127857</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>270.8649210240334</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>92.13881552133064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="V4" t="n">
-        <v>14.74342421266641</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>17.23430169187246</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>221.0706685696819</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>204.916656265211</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>327.4580453504705</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>283.0332829292294</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>6.791389034820234</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.03250833502995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590252</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>43.51301346010354</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292646</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15.07437110675865</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.25588147840217</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>270.0697021486495</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292631</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>183.0172251110628</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153823</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>124.9598142566939</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>91.63725000569373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284788085</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094695</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392681</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I27" t="n">
-        <v>2.57938907076668</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.2482524947754</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>96.80062378446925</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284788085</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094695</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392681</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I30" t="n">
-        <v>2.57938907076668</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.1539249212549</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>215.3290180178256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5860847482409</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284788085</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094695</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392681</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I33" t="n">
-        <v>2.57938907076668</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>144.4353940427143</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>60.77328755004291</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.5541093828364</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>2.119387955707861</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3518,7 +3518,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.837070800806423</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>23.94516103140472</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>84.2331261579213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>81.37259901119319</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.55410938283596</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1646.746562480845</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C2" t="n">
-        <v>1277.784045540433</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="D2" t="n">
-        <v>1277.784045540433</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="E2" t="n">
-        <v>891.9957929421889</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="F2" t="n">
-        <v>481.0098881525814</v>
+        <v>488.1306164733774</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>474.2072124119683</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>147.0124924479712</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.346402544967</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>683.8197173704941</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>394.4025473335336</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>394.4025473335336</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2679.740705470876</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2679.740705470876</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2348.677818127306</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1995.909162857192</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.7444956504007</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C8" t="n">
-        <v>764.7444956504007</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D8" t="n">
-        <v>764.7444956504007</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E8" t="n">
-        <v>764.7444956504007</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F8" t="n">
-        <v>353.7585908607932</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>339.8351867993841</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.6820060902423</v>
+        <v>229.7391536723322</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>60.80297074442529</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>60.80297074442529</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>686.6820060902423</v>
+        <v>229.7391536723322</v>
       </c>
       <c r="W10" t="n">
-        <v>686.6820060902423</v>
+        <v>229.7391536723322</v>
       </c>
       <c r="X10" t="n">
-        <v>686.6820060902423</v>
+        <v>229.7391536723322</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.6820060902423</v>
+        <v>229.7391536723322</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>348.082974081076</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1002.806306216376</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464784</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.5092287479663</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>805.5092287479663</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553271</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1690.62431182564</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1435.939823619753</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1435.939823619753</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1207.950272721736</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>987.157693578206</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>845.0839474760708</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2274.668463554308</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>3554.371154826471</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4267.726242273417</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,7 +5306,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5370,25 +5370,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5413,16 +5413,16 @@
         <v>260.9043113423046</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423046</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>112.9912177599115</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>112.9912177599115</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,16 +5452,16 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
         <v>1542.890966501056</v>
@@ -5470,10 +5470,10 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X16" t="n">
         <v>481.6968904858347</v>
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>2782.232616025904</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5607,37 +5607,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5671,22 +5671,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K19" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5704,19 +5704,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563026</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357139</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201786</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221613</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888351</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710302</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5911,49 +5911,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626702</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.374715279778</v>
+        <v>999.1036114208146</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.957545242818</v>
+        <v>709.686441383854</v>
       </c>
       <c r="X22" t="n">
-        <v>964.9679943448001</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.17541520127</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>741.102086204384</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1605.620901857739</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2584.171204687567</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>877.1197344942217</v>
+        <v>368.6730165490259</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663148</v>
+        <v>368.6730165490259</v>
       </c>
       <c r="D25" t="n">
-        <v>558.066912153979</v>
+        <v>368.6730165490259</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715859</v>
+        <v>368.6730165490259</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>221.7830690511155</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.576850674229</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468342</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.475192431382</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="X25" t="n">
-        <v>1097.912313637752</v>
+        <v>771.1140605227957</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.1197344942217</v>
+        <v>550.3214813792656</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760576</v>
+        <v>389.620392314183</v>
       </c>
       <c r="H26" t="n">
-        <v>101.832466369654</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886063</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030682</v>
+        <v>804.7014151994154</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.671231675072</v>
+        <v>1680.103564163851</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054111</v>
+        <v>2369.178015211324</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028841</v>
+        <v>3074.016219660738</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300297</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646627</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C27" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702533</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971382</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170329</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044015</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J27" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="K27" t="n">
-        <v>407.820281909193</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="L27" t="n">
-        <v>875.8961769197517</v>
+        <v>563.7470368959038</v>
       </c>
       <c r="M27" t="n">
-        <v>1441.475536855678</v>
+        <v>1131.113107956638</v>
       </c>
       <c r="N27" t="n">
-        <v>2036.432744430946</v>
+        <v>1635.038314100805</v>
       </c>
       <c r="O27" t="n">
-        <v>2558.482559838429</v>
+        <v>2158.765881254652</v>
       </c>
       <c r="P27" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>656.2496386565555</v>
+        <v>408.9705711061351</v>
       </c>
       <c r="C28" t="n">
-        <v>656.2496386565555</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="D28" t="n">
-        <v>506.1329992442197</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="E28" t="n">
-        <v>408.3545913811195</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F28" t="n">
-        <v>261.4646438832091</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603205</v>
+        <v>167.3552671573045</v>
       </c>
       <c r="K28" t="n">
-        <v>416.423526453247</v>
+        <v>417.5071952352225</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371887</v>
+        <v>793.1419734834328</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408913</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740132</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.61251818597</v>
+        <v>2237.95709932761</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396751</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396751</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.27466105248</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.214509174215</v>
+        <v>1872.58357744421</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.133426940951</v>
+        <v>1583.50282422077</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.448938735064</v>
+        <v>1328.818336014883</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.031768698103</v>
+        <v>1039.401165977922</v>
       </c>
       <c r="X28" t="n">
-        <v>877.0422178000856</v>
+        <v>811.411615079905</v>
       </c>
       <c r="Y28" t="n">
-        <v>656.2496386565555</v>
+        <v>590.6190359363749</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955677</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348927</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750683</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906163</v>
+        <v>803.7890349610752</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760575</v>
+        <v>389.6203923141831</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696536</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886063</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030682</v>
+        <v>804.7014151994154</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675072</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.953612054111</v>
+        <v>2084.599393525236</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.440188028841</v>
+        <v>2789.43759797465</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300297</v>
+        <v>3441.661066330418</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646627</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573239</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810787</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467216</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197102</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936022</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C30" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E30" t="n">
-        <v>465.0889283702533</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5543703971382</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170329</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044015</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>231.9507289421373</v>
+        <v>184.1368501398688</v>
       </c>
       <c r="K30" t="n">
-        <v>545.6098185067151</v>
+        <v>184.1368501398688</v>
       </c>
       <c r="L30" t="n">
-        <v>1013.685713517274</v>
+        <v>653.7438362744299</v>
       </c>
       <c r="M30" t="n">
-        <v>1579.2650734532</v>
+        <v>1221.109907335164</v>
       </c>
       <c r="N30" t="n">
-        <v>2174.222281028468</v>
+        <v>1817.901114962189</v>
       </c>
       <c r="O30" t="n">
-        <v>2560.279010110499</v>
+        <v>2341.628682116036</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110499</v>
+        <v>2341.628682116036</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.2140146848578</v>
+        <v>410.9893272716427</v>
       </c>
       <c r="C31" t="n">
-        <v>244.2778317569509</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="D31" t="n">
-        <v>94.16119234461522</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="E31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603205</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532469</v>
+        <v>417.5071952352225</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371886</v>
+        <v>793.1419734834328</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649981</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408913</v>
+        <v>1601.798933740115</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740132</v>
+        <v>1957.292026969319</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.61251818597</v>
+        <v>2237.957099327608</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396751</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.12770096114</v>
+        <v>2277.2385295919</v>
       </c>
       <c r="S31" t="n">
-        <v>2086.402009616869</v>
+        <v>2092.617956886288</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.341857738604</v>
+        <v>1872.583577444209</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.260775505339</v>
+        <v>1583.502824220768</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.576287299452</v>
+        <v>1328.818336014881</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.159117262492</v>
+        <v>1039.401165977921</v>
       </c>
       <c r="X31" t="n">
-        <v>815.6550586586277</v>
+        <v>811.4116150799035</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.8624795150976</v>
+        <v>592.6377921018824</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141831</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696537</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886063</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K32" t="n">
-        <v>801.9275083030682</v>
+        <v>804.7014151994154</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.671231675072</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M32" t="n">
-        <v>2378.953612054111</v>
+        <v>2084.599393525236</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028841</v>
+        <v>2789.43759797465</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300297</v>
+        <v>3450.988591588947</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646627</v>
+        <v>3973.145231248393</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670195</v>
+        <v>4527.282216042447</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C33" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E33" t="n">
-        <v>465.0889283702533</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F33" t="n">
-        <v>318.5543703971382</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170329</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585044015</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J33" t="n">
-        <v>231.9507289421373</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="K33" t="n">
-        <v>545.6098185067151</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="L33" t="n">
-        <v>1013.685713517274</v>
+        <v>563.7470368959038</v>
       </c>
       <c r="M33" t="n">
-        <v>1579.2650734532</v>
+        <v>1131.113107956638</v>
       </c>
       <c r="N33" t="n">
-        <v>2160.621074764547</v>
+        <v>1727.904315583663</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.621074764547</v>
+        <v>2251.63188273751</v>
       </c>
       <c r="P33" t="n">
-        <v>2560.279010110499</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110499</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>474.6011738263153</v>
+        <v>408.9705711061328</v>
       </c>
       <c r="C34" t="n">
-        <v>305.6649908984084</v>
+        <v>240.0343881782258</v>
       </c>
       <c r="D34" t="n">
-        <v>155.5483514860727</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="E34" t="n">
-        <v>155.5483514860727</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F34" t="n">
-        <v>155.5483514860727</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G34" t="n">
-        <v>155.5483514860727</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603205</v>
+        <v>167.3552671573045</v>
       </c>
       <c r="K34" t="n">
-        <v>416.423526453247</v>
+        <v>417.5071952352225</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371887</v>
+        <v>793.1419734834328</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.585302358416</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408913</v>
+        <v>1601.798933740115</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740132</v>
+        <v>1957.292026969319</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.61251818597</v>
+        <v>2237.957099327608</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396751</v>
+        <v>2348.839967262877</v>
       </c>
       <c r="R34" t="n">
-        <v>2343.000352396751</v>
+        <v>2277.2385295919</v>
       </c>
       <c r="S34" t="n">
-        <v>2158.27466105248</v>
+        <v>2092.617956886287</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.214509174215</v>
+        <v>1872.583577444208</v>
       </c>
       <c r="U34" t="n">
-        <v>1649.133426940951</v>
+        <v>1583.502824220767</v>
       </c>
       <c r="V34" t="n">
-        <v>1394.448938735063</v>
+        <v>1328.818336014881</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.031768698102</v>
+        <v>1039.40116597792</v>
       </c>
       <c r="X34" t="n">
-        <v>877.0422178000852</v>
+        <v>811.4116150799026</v>
       </c>
       <c r="Y34" t="n">
-        <v>656.249638656555</v>
+        <v>590.6190359363725</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6947,10 +6947,10 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
         <v>4202.751434297606</v>
@@ -6962,7 +6962,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
@@ -7014,28 +7014,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.755759562691</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N36" t="n">
-        <v>2276.851722962027</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2323.251080710519</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476004</v>
       </c>
       <c r="C37" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196935</v>
       </c>
       <c r="D37" t="n">
-        <v>243.902237648856</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E37" t="n">
-        <v>95.98914406646304</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F37" t="n">
         <v>93.84834815160703</v>
@@ -7096,7 +7096,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7117,28 +7117,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897846</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778401</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160703</v>
@@ -7172,28 +7172,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7248,31 +7248,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L39" t="n">
-        <v>915.0894235587172</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M39" t="n">
-        <v>1507.107777810845</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.203741210181</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>538.7680286442462</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7680286442462</v>
+        <v>558.0691298872742</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6513892319105</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
         <v>93.84834815160703</v>
@@ -7333,7 +7333,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7348,34 +7348,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2405.225467990841</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S40" t="n">
-        <v>2222.055277729771</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T40" t="n">
-        <v>2002.376495444153</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U40" t="n">
-        <v>1713.30028175888</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V40" t="n">
-        <v>1458.615793552994</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.198623516033</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X40" t="n">
-        <v>941.2090726180161</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.4164934744859</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160725</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507207</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384034</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883218</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>394.0559815405653</v>
       </c>
       <c r="L42" t="n">
-        <v>584.580680995359</v>
+        <v>884.7883143843165</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849103</v>
+        <v>1476.806668636444</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284247</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.6035248193406</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>575.6673418914337</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D43" t="n">
-        <v>490.5833760753516</v>
+        <v>176.0428926073573</v>
       </c>
       <c r="E43" t="n">
-        <v>490.5833760753516</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F43" t="n">
-        <v>343.6934285774412</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G43" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.459198011725</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948596</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789009</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103736</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897849</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860888</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628707</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193406</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556115</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148078</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112159</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798343</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7725,52 +7725,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>119.3219818740134</v>
+        <v>729.4465287982117</v>
       </c>
       <c r="M45" t="n">
-        <v>716.7004695005653</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055172</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.208163294459</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437062</v>
+        <v>495.0957149476</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157994</v>
+        <v>326.1595320196931</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157994</v>
+        <v>326.1595320196931</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157994</v>
+        <v>178.2464384373</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157994</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306794</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074695</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614143</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958341</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752454</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715493</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174761</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.533750673946</v>
+        <v>676.7441797778397</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>64.28566532692543</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8699,19 +8699,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>226.768859619311</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>60.01894884692075</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.0727796301213</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>258.6211785616931</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>180.7381496078607</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>124.0833809162805</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,10 +9647,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>287.4531532182707</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5677898107916</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>304.5677898107916</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>287.45315321827</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>304.5677898107916</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.421742685382924</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782908215</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>242.6988247455093</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1724499918692</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>148.7699267806258</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143191</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696563</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696333</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>69.12041821276522</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>3.556976973654827</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>41.06599400233432</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>134.0724053833434</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>1.998568603852436</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>49.63333886209992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898784</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.1539249212549</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898784</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>10.38063737121158</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.998568603853842</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.18007897549802</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>80.46633983125744</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898784</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.1539249212549</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.06136363537595</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>143.3016600672234</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>162.4097502978214</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.23559055967883</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>64.38234686029105</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537598</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>61.86693864009528</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194163</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1014007.420795879</v>
+        <v>1013962.189979581</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1014007.420795879</v>
+        <v>1013962.189979581</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1014007.420795879</v>
+        <v>1013962.189979581</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1013202.857367594</v>
+        <v>1013338.114337545</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>397081.7868869832</v>
+        <v>397081.786886983</v>
       </c>
       <c r="F2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.786886983</v>
       </c>
       <c r="G2" t="n">
         <v>397081.7868869831</v>
@@ -26332,16 +26332,16 @@
         <v>397081.786886983</v>
       </c>
       <c r="I2" t="n">
-        <v>397081.786886983</v>
+        <v>397081.7868869832</v>
       </c>
       <c r="J2" t="n">
-        <v>402198.0734914912</v>
+        <v>402275.3439200656</v>
       </c>
       <c r="K2" t="n">
-        <v>402198.0734914912</v>
+        <v>402275.3439200655</v>
       </c>
       <c r="L2" t="n">
-        <v>402198.0734914913</v>
+        <v>402275.3439200654</v>
       </c>
       <c r="M2" t="n">
         <v>403341.4885592794</v>
@@ -26353,7 +26353,7 @@
         <v>403341.4885592795</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403341.4885592794</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733739</v>
+        <v>336433.9864356425</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408588</v>
+        <v>160866.4619420257</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.240775398211554e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574951876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
-        <v>9308.906536749666</v>
+        <v>9070.55650837061</v>
       </c>
       <c r="K4" t="n">
-        <v>9308.906536749666</v>
+        <v>9070.556508370601</v>
       </c>
       <c r="L4" t="n">
-        <v>9308.906536749666</v>
+        <v>9070.556508370601</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.9718948551</v>
+        <v>5781.971894855097</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855109</v>
+        <v>5781.971894855158</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894854993</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855114</v>
       </c>
     </row>
     <row r="5">
@@ -26479,25 +26479,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26506,10 +26506,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-463370.5782735437</v>
+        <v>-463370.578273544</v>
       </c>
       <c r="C6" t="n">
-        <v>126597.3009410005</v>
+        <v>126597.3009410007</v>
       </c>
       <c r="D6" t="n">
         <v>126597.3009410005</v>
       </c>
       <c r="E6" t="n">
-        <v>-451769.869035131</v>
+        <v>-451837.0645253569</v>
       </c>
       <c r="F6" t="n">
-        <v>275607.5449582756</v>
+        <v>275540.3494680497</v>
       </c>
       <c r="G6" t="n">
-        <v>275607.5449582756</v>
+        <v>275540.3494680495</v>
       </c>
       <c r="H6" t="n">
-        <v>275607.5449582755</v>
+        <v>275540.3494680498</v>
       </c>
       <c r="I6" t="n">
-        <v>275607.5449582755</v>
+        <v>275540.3494680499</v>
       </c>
       <c r="J6" t="n">
-        <v>-41263.7169679631</v>
+        <v>-43426.10832352855</v>
       </c>
       <c r="K6" t="n">
-        <v>292789.6081054107</v>
+        <v>293007.8781121138</v>
       </c>
       <c r="L6" t="n">
-        <v>292789.6081054108</v>
+        <v>293007.8781121137</v>
       </c>
       <c r="M6" t="n">
-        <v>133499.998466327</v>
+        <v>135727.1182832957</v>
       </c>
       <c r="N6" t="n">
-        <v>296629.4772071859</v>
+        <v>296593.5802253218</v>
       </c>
       <c r="O6" t="n">
-        <v>296629.4772071851</v>
+        <v>296593.5802253216</v>
       </c>
       <c r="P6" t="n">
-        <v>290746.964165711</v>
+        <v>296593.5802253214</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184552</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184552</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184552</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912535</v>
+        <v>222.573896466349</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183431</v>
+        <v>45.69045165673856</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625286783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>656.5249766664083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377723</v>
+        <v>516.5793752286796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>142.9192489967616</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>59.79250072353061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>275.2775795709193</v>
       </c>
       <c r="V4" t="n">
-        <v>237.3942191111616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>199.2140186657853</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>148.6604321087871</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,25 +27819,25 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>20.79299912382618</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>79.41800039124092</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>40.88948983512773</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>139.6425736117489</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>211.1051349887981</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-5.055922180081919e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.952198223502498e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721811</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442726</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856178</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357682</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010026</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L26" t="n">
-        <v>830.457044638678</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023794</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710653</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736628</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545929</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719929</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520768</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052984</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764974</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377448</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906394</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256965</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923332</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709022</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>611.3583141339739</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855804</v>
+        <v>715.2310753975077</v>
       </c>
       <c r="N27" t="n">
-        <v>732.308588421988</v>
+        <v>640.3570718249165</v>
       </c>
       <c r="O27" t="n">
-        <v>669.9192903105884</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P27" t="n">
-        <v>135.7890036487445</v>
+        <v>539.0294367432352</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940163</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279814</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412102</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36056233525083</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613922</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827045</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022337</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K28" t="n">
-        <v>274.25442404096</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L28" t="n">
-        <v>350.951240279019</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793642</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661569</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589084</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197912</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908673</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559146</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S28" t="n">
-        <v>41.138163606144</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T28" t="n">
-        <v>10.086039068799</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721811</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442726</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856178</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357682</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010026</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L29" t="n">
-        <v>830.457044638678</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023794</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710653</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736628</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545929</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719929</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520768</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052984</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764974</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377448</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906394</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256965</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923332</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J30" t="n">
-        <v>266.0189767651739</v>
+        <v>217.7434846247739</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6688021709022</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339739</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855804</v>
+        <v>715.2310753975077</v>
       </c>
       <c r="N30" t="n">
-        <v>732.308588421988</v>
+        <v>734.1611137267927</v>
       </c>
       <c r="O30" t="n">
-        <v>532.5525364464954</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549432</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940163</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279814</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412102</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36056233525083</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613922</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827045</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022337</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K31" t="n">
-        <v>274.25442404096</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L31" t="n">
-        <v>350.951240279019</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793642</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661569</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589084</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197912</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908673</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559146</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S31" t="n">
-        <v>41.138163606144</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T31" t="n">
-        <v>10.086039068799</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721811</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442726</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856178</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357682</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010026</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L32" t="n">
-        <v>830.457044638678</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023794</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710653</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736628</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545929</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719929</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520768</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052984</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764974</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377448</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906394</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256965</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923332</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J33" t="n">
-        <v>266.0189767651739</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709022</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>611.3583141339739</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855804</v>
+        <v>715.2310753975077</v>
       </c>
       <c r="N33" t="n">
-        <v>718.5699962362086</v>
+        <v>734.1611137267927</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021605</v>
+        <v>195.2990612988882</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549432</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940163</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279814</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412102</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.36056233525083</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613922</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827045</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022337</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K34" t="n">
-        <v>274.25442404096</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L34" t="n">
-        <v>350.951240279019</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793642</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661569</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589084</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197912</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908673</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559146</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S34" t="n">
-        <v>41.138163606144</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T34" t="n">
-        <v>10.086039068799</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>419.9237601200352</v>
       </c>
       <c r="N36" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>189.4642825742344</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>571.4938338238233</v>
+        <v>152.7317201414751</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>290.8925693406113</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>293.7647843155045</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338201</v>
+        <v>297.5861538519954</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.072666295638</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
@@ -35419,19 +35419,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>734.8218605075301</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>397.2102354023211</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>455.8670844338408</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M17" t="n">
-        <v>797.5422943919199</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>733.0399850207722</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36288,16 +36288,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167542</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>461.274667471681</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090819</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560221</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686907</v>
+        <v>884.2445949135711</v>
       </c>
       <c r="M26" t="n">
-        <v>998.2650306858983</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744744</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O26" t="n">
-        <v>656.568578051976</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993234</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.9817373975434</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379446</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965432</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>472.8039343540997</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635621</v>
+        <v>573.0970414754893</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386547</v>
+        <v>509.0153597415832</v>
       </c>
       <c r="O27" t="n">
-        <v>527.323045866144</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P27" t="n">
-        <v>1.814596234414303</v>
+        <v>405.055029328905</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556092</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150772</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393351</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412048</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453855</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729481</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846847</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391729</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090819</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560221</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686907</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M29" t="n">
-        <v>998.2650306858983</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744744</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O29" t="n">
-        <v>656.568578051976</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993234</v>
+        <v>814.884102369226</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975434</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379446</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1813500985072</v>
+        <v>90.90585795810722</v>
       </c>
       <c r="K30" t="n">
-        <v>316.8273631965432</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343540997</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635621</v>
+        <v>573.0970414754893</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386547</v>
+        <v>602.8194016434594</v>
       </c>
       <c r="O30" t="n">
-        <v>389.9562920020509</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.3451294689217</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556092</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150772</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393351</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412048</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453855</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729481</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846847</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391729</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090819</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K32" t="n">
-        <v>449.3159141560221</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686907</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M32" t="n">
-        <v>998.2650306858983</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744744</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O32" t="n">
-        <v>656.568578051976</v>
+        <v>668.2333268831279</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993234</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975434</v>
+        <v>559.7343280748019</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379446</v>
+        <v>181.5356788128124</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1813500985072</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965432</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>472.8039343540997</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635621</v>
+        <v>573.0970414754893</v>
       </c>
       <c r="N33" t="n">
-        <v>587.2282841528753</v>
+        <v>602.8194016434594</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6948841878302</v>
+        <v>61.32465388455794</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>220.3451294689217</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556092</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150772</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393351</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412048</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453855</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729481</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846847</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391729</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404112</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>277.7897261980169</v>
       </c>
       <c r="N36" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>46.86803812978999</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>428.8975893793788</v>
+        <v>10.13547569703065</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37713,7 +37713,7 @@
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
         <v>293.4650856931359</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607207</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554531</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>153.0511303662523</v>
       </c>
       <c r="L42" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>151.6307503934862</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394586</v>
+        <v>159.0317740721212</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
